--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,6%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>47,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>56,18%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>41,16%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>49,76%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>41,16%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>52,21%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,15%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>56,55%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>41,17%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>44,7%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>37,3%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,11%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,35%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">

--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,86%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>47,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>56,15%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>40,88%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>41,09%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,39%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>54,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>52,42%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>37,13%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>36,52%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>57,38%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>44,76%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>48,33%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>37,29%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>10469</v>
+        <v>40917</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>5020</v>
+        <v>22672</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>15489</v>
+        <v>63589</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12924</v>
+        <v>79582</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>6081</v>
+        <v>50817</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>19005</v>
+        <v>130399</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>8,27%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -821,66 +821,66 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>53</v>
+        <v>354</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>42433</v>
+        <v>268450</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>138</v>
+        <v>653</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>71694</v>
+        <v>342714</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>191</v>
+        <v>1007</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>114127</v>
+        <v>611164</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>49,2%</t>
         </is>
       </c>
     </row>
@@ -892,66 +892,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>33387</v>
+        <v>243944</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>89</v>
+        <v>479</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>47938</v>
+        <v>258789</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>131</v>
+        <v>750</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>81325</v>
+        <v>502734</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>115</v>
+        <v>727</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>99213</v>
+        <v>632893</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>130733</v>
+        <v>674993</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>358</v>
+        <v>1964</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>229946</v>
+        <v>1307886</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1038,66 +1038,66 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>31071</v>
+        <v>87461</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>19064</v>
+        <v>47545</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>50135</v>
+        <v>135005</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -1109,66 +1109,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>67197</v>
+        <v>158716</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>49973</v>
+        <v>65092</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>117170</v>
+        <v>223808</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -1180,66 +1180,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>240283</v>
+        <v>630414</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>515</v>
+        <v>787</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>296222</v>
+        <v>476307</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>816</v>
+        <v>1224</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>536505</v>
+        <v>1106721</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,98%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>68,37%</t>
         </is>
       </c>
     </row>
@@ -1251,66 +1251,66 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>211272</v>
+        <v>313592</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>390</v>
+        <v>581</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>226894</v>
+        <v>368422</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>619</v>
+        <v>914</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>438165</v>
+        <v>682014</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>612</v>
+        <v>962</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>549823</v>
+        <v>1190183</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>592152</v>
+        <v>957366</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>1606</v>
+        <v>2476</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1141975</v>
+        <v>2147549</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1397,66 +1397,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>92683</v>
+        <v>95757</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>52543</v>
+        <v>49576</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>145227</v>
+        <v>145333</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -1468,66 +1468,66 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>161471</v>
+        <v>83006</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>70633</v>
+        <v>44319</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>232104</v>
+        <v>127325</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -1539,66 +1539,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>455762</v>
+        <v>285157</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>787</v>
+        <v>443</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>533513</v>
+        <v>489336</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>1224</v>
+        <v>735</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>989275</v>
+        <v>774492</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>66,15%</t>
         </is>
       </c>
     </row>
@@ -1610,66 +1610,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>326511</v>
+        <v>239711</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>581</v>
+        <v>477</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>402004</v>
+        <v>347823</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>914</v>
+        <v>730</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>728516</v>
+        <v>587534</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>42,29%</t>
         </is>
       </c>
     </row>
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>962</v>
+        <v>675</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1036427</v>
+        <v>703631</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1058694</v>
+        <v>931053</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>2476</v>
+        <v>1719</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2095121</v>
+        <v>1634683</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1756,66 +1756,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>99295</v>
+        <v>177381</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>54997</v>
+        <v>119114</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>154292</v>
+        <v>296495</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -1827,66 +1827,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>83611</v>
+        <v>93467</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>48126</v>
+        <v>56846</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>131737</v>
+        <v>150313</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1898,66 +1898,66 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>292</v>
+        <v>452</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>294757</v>
+        <v>384138</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>443</v>
+        <v>692</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>420772</v>
+        <v>501899</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>65,28%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>735</v>
+        <v>1144</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>715529</v>
+        <v>886036</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>50,6%</t>
         </is>
       </c>
     </row>
@@ -1969,66 +1969,66 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>249990</v>
+        <v>268855</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>477</v>
+        <v>630</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>347713</v>
+        <v>411977</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>730</v>
+        <v>934</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>597703</v>
+        <v>680832</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>675</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>727652</v>
+        <v>923840</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>1044</v>
+        <v>1556</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>871609</v>
+        <v>1089836</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>1719</v>
+        <v>2559</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1599262</v>
+        <v>2013676</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -2115,66 +2115,66 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>180391</v>
+        <v>401516</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>130902</v>
+        <v>238907</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>319</v>
+        <v>661</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>311293</v>
+        <v>640422</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>9,93%</t>
         </is>
       </c>
     </row>
@@ -2186,66 +2186,66 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>92</v>
+        <v>340</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>98291</v>
+        <v>414771</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>63238</v>
+        <v>217074</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>162</v>
+        <v>619</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>161529</v>
+        <v>631845</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -2257,66 +2257,66 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>452</v>
+        <v>1535</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>403735</v>
+        <v>1568158</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>692</v>
+        <v>2575</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>492093</v>
+        <v>1810256</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>1144</v>
+        <v>4110</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>895828</v>
+        <v>3378413</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>54,09%</t>
         </is>
       </c>
     </row>
@@ -2328,66 +2328,66 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>304</v>
+        <v>1161</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>279715</v>
+        <v>1066102</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>630</v>
+        <v>2167</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>458308</v>
+        <v>1387012</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>934</v>
+        <v>3328</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>738022</v>
+        <v>2453114</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>36,85%</t>
         </is>
       </c>
     </row>
@@ -2399,10 +2399,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1003</v>
+        <v>3367</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>962132</v>
+        <v>3450546</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1556</v>
+        <v>5351</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1144540</v>
+        <v>3653248</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>2559</v>
+        <v>8718</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2106672</v>
+        <v>7103794</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
@@ -2463,374 +2463,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>413909</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>12,26%</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>13,67%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>262526</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>6,0%</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>7,67%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>676435</v>
-      </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>10,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>423494</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>238051</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>661545</v>
-      </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>9,22%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>1535</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1436970</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>42,57%</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>40,62%</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>45,43%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>2575</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>1814294</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>47,77%</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>45,51%</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>52,72%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>4110</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>3251264</v>
-      </c>
-      <c r="O31" s="2" t="inlineStr">
-        <is>
-          <t>45,33%</t>
-        </is>
-      </c>
-      <c r="P31" s="2" t="inlineStr">
-        <is>
-          <t>43,83%</t>
-        </is>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>48,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>1161</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1100874</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>32,62%</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>30,61%</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>34,53%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>2167</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1482857</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>39,05%</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>35,53%</t>
-        </is>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>41,15%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>3328</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>2583731</v>
-      </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>36,02%</t>
-        </is>
-      </c>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>33,95%</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>37,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>3367</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>3375248</v>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>5351</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>3797728</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>8718</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>7172976</v>
-      </c>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A29:A33"/>
+  <mergeCells count="9">
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A24:A28"/>

--- a/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>40917</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40917</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>28528</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60640</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,47%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>22672</v>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22672</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15788</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32082</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>3,36%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,8%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>63589</v>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>63589</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>49762</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>84938</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>4,86%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>79582</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>79582</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>59382</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103976</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>12,57%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>16,29%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>50817</v>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50817</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39564</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65628</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,53%</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>130399</v>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,72%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>130399</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>108585</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>157895</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>9,97%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>354</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>268450</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>268450</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>242698</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>294230</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>42,42%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>46,55%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>342714</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46,49%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>342714</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>322872</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>364353</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>50,77%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>47,65%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>53,88%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>1007</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>611164</v>
-      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>47,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>53,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>611164</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>576024</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>642843</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>46,73%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>43,64%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>49,2%</t>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>243944</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>132852</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>111724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>162391</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>479</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>258789</v>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>138227</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>502734</v>
+          <t>122293</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>154664</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>271078</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>244906</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>304370</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
         </is>
       </c>
     </row>
@@ -959,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>727</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>632893</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>111092</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91835</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>131722</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1237</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>674993</v>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>120563</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>1964</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>1307886</v>
+          <t>105669</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>137019</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>231655</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>208780</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>258528</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>10-50.000 hab</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>87461</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>632893</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>632893</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>632893</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>47545</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>674993</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>135005</v>
+          <t>674993</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>674993</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1307886</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1307886</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1307886</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>158716</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>87461</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>44049</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>121774</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>65092</v>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>47545</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>223808</v>
+          <t>36381</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61911</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>135005</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>85876</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>168462</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>437</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>630414</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>158716</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>84267</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>212937</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>787</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>476307</v>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>65092</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1224</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>1106721</v>
+          <t>51892</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>81964</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>223808</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>157922</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>271211</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>333</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>313592</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>630414</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>468858</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>884230</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>581</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>368422</v>
+          <t>52,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>74,29%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>787</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>476307</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>914</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>682014</v>
+          <t>446225</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>502470</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49,75%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1106721</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>959323</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1450091</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>51,53%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>44,67%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>67,52%</t>
         </is>
       </c>
     </row>
@@ -1318,145 +1744,225 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>962</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1190183</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>174359</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>93228</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>231430</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1514</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>957366</v>
+          <t>14,65%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>2476</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>2147549</v>
+          <t>180907</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>225817</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>376168</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>261930</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>440925</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>&gt;50.000 hab</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>95757</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>139233</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>74359</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>186627</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>49576</v>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>166614</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>145333</v>
+          <t>147509</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189272</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>305847</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>201436</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>355500</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
         </is>
       </c>
     </row>
@@ -1464,141 +1970,229 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>83006</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1190183</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>1190183</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>1190183</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>44319</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>957366</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>127325</v>
+          <t>957366</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>957366</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2147549</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2147549</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2147549</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>292</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>285157</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95757</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>76309</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>121322</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>443</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>489336</v>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>49576</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>735</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>774492</v>
+          <t>22820</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>69360</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>66,15%</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>145333</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>88544</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>180109</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>253</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>239711</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83006</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>62427</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>107305</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>477</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>347823</v>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>44319</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>730</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>587534</v>
+          <t>20062</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>63758</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>127325</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>84259</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>164839</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -1677,145 +2313,225 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>703631</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>285157</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>255270</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>317735</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1044</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>931053</v>
+          <t>40,53%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45,16%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>489336</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>1719</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>1634683</v>
+          <t>352890</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>710536</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>774492</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>632887</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1105604</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>38,72%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>67,63%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Capitales</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>177381</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>125850</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>106622</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>149660</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>119114</v>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>181946</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>319</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>296495</v>
+          <t>92503</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>261855</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>307796</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>205556</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>387741</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
         </is>
       </c>
     </row>
@@ -1823,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>93467</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>113861</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>92614</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>139659</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>56846</v>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19,85%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>165877</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>150313</v>
+          <t>88156</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>225293</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,82%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>279738</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>171720</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>333728</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -1894,141 +2652,229 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>452</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>384138</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>703631</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>703631</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>703631</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>692</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>501899</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>931053</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1144</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>886036</v>
+          <t>931053</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>931053</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>50,6%</t>
+          <t>1719</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1634683</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1634683</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1634683</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>268855</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>177381</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>149412</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>210370</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>630</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>411977</v>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>119114</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>934</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>680832</v>
+          <t>93634</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>139395</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>296495</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>257296</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>339343</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -2036,145 +2882,225 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>923840</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>93467</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76073</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>118084</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1556</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1089836</v>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>56846</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>2559</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>2013676</v>
+          <t>42647</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74284</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>150313</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>123893</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>177261</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>401516</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>384138</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>351471</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>415512</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>238907</v>
+          <t>41,58%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38,04%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44,98%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>692</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>501899</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>640422</v>
+          <t>452488</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>615502</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46,05%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>1144</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>886036</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>826109</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1012448</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>44,0%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>41,02%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>50,28%</t>
         </is>
       </c>
     </row>
@@ -2182,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>414771</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>170393</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>148360</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>198762</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>217074</v>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>233667</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>631845</v>
+          <t>186146</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>262536</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>21,44%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>404060</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>357495</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>441539</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>21,93%</t>
         </is>
       </c>
     </row>
@@ -2253,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>1535</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>1568158</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>98462</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>78931</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>120947</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>2575</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1810256</v>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>178310</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>4110</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>3378413</v>
+          <t>141064</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>202461</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>276771</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>240653</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>307089</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
         </is>
       </c>
     </row>
@@ -2324,146 +3334,799 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>1161</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>1066102</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>923840</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>923840</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>923840</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>2167</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1387012</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>1089836</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>3328</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>2453114</v>
+          <t>1089836</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1089836</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>2559</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>2013676</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>2013676</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>2013676</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>3367</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>3450546</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>401516</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>318403</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>462396</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>5351</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>3653248</v>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>238907</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>8718</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>7103794</v>
+          <t>194492</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>271469</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>640422</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>551010</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>713080</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>414771</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>333776</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>474290</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>217074</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>177890</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>249846</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>631845</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>546604</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>706277</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1568158</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1403834</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2001886</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1810256</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1672264</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2170552</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49,55%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>45,77%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>3378413</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>3116160</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>3872411</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>603454</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>471932</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>674553</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>755648</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>620377</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>843105</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>1359102</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>1185873</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>1485947</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>462648</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>366725</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>520105</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>631364</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>514108</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>689909</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>1094012</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>949168</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>1187350</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -2471,15 +4134,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
